--- a/medicine/Psychotrope/St._Georgen-Bräu/St._Georgen-Bräu.xlsx
+++ b/medicine/Psychotrope/St._Georgen-Bräu/St._Georgen-Bräu.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>St._Georgen-Br%C3%A4u</t>
+          <t>St._Georgen-Bräu</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 St. Georgen-Bräu est une brasserie à Buttenheim.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>St._Georgen-Br%C3%A4u</t>
+          <t>St._Georgen-Bräu</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La brasserie est fondée en 1624. De 1814 à 2009, le St. Georgen-Bräu appartient à la famille Modschiedler avant d'être repris par le maître brasseur Norbert Kramer, qui faisait partie de l'entreprise depuis 2000.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>St._Georgen-Br%C3%A4u</t>
+          <t>St._Georgen-Bräu</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les bières suivantes sont représentées en permanence dans la gamme : Pils, Helles, Kellerbier[1], Weizenbier, dunkel Landbier, "Goldmärz", "Levi-Bier", "Zimbus" (bière brune) et bière sans alcool. Une "Annafest-Bier" est proposée en saison à partir de mai et un Doppelbock brune, une bière de festival et un "Buttenheimer Hopfenzupfer" à partir d'octobre. En outre, le St. Georgen-Bräu produit la "Höhlentrunk" de la Wagner-Bräu à Pottenstein dans le cadre d'un processus de brassage sous contrat.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les bières suivantes sont représentées en permanence dans la gamme : Pils, Helles, Kellerbier, Weizenbier, dunkel Landbier, "Goldmärz", "Levi-Bier", "Zimbus" (bière brune) et bière sans alcool. Une "Annafest-Bier" est proposée en saison à partir de mai et un Doppelbock brune, une bière de festival et un "Buttenheimer Hopfenzupfer" à partir d'octobre. En outre, le St. Georgen-Bräu produit la "Höhlentrunk" de la Wagner-Bräu à Pottenstein dans le cadre d'un processus de brassage sous contrat.
 </t>
         </is>
       </c>
